--- a/teaching/traditional_assets/database/data/brazil/brazil_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04769999999999999</v>
+        <v>0.0354</v>
       </c>
       <c r="E2">
-        <v>0.06065000000000001</v>
+        <v>0.1495</v>
       </c>
       <c r="F2">
-        <v>0.09495000000000001</v>
+        <v>-0.0207</v>
       </c>
       <c r="G2">
-        <v>0.1317487348381396</v>
+        <v>0.3224429426102371</v>
       </c>
       <c r="H2">
-        <v>0.1317487348381396</v>
+        <v>0.3224429426102371</v>
       </c>
       <c r="I2">
-        <v>0.3028310837362961</v>
+        <v>0.2464181254154664</v>
       </c>
       <c r="J2">
-        <v>0.2300827823357994</v>
+        <v>0.1859234386920439</v>
       </c>
       <c r="K2">
-        <v>1843.7</v>
+        <v>1552.218</v>
       </c>
       <c r="L2">
-        <v>0.2962004980319704</v>
+        <v>0.1719718590737868</v>
       </c>
       <c r="M2">
-        <v>1661.88</v>
+        <v>797.8288</v>
       </c>
       <c r="N2">
-        <v>0.06804541602007935</v>
+        <v>0.04423314427645549</v>
       </c>
       <c r="O2">
-        <v>0.9013830883549386</v>
+        <v>0.5139927510182204</v>
       </c>
       <c r="P2">
-        <v>1657.1</v>
+        <v>699.8008</v>
       </c>
       <c r="Q2">
-        <v>0.06784969966957512</v>
+        <v>0.03879828573646247</v>
       </c>
       <c r="R2">
-        <v>0.8987904756739168</v>
+        <v>0.4508392506722638</v>
       </c>
       <c r="S2">
-        <v>4.780000000000001</v>
+        <v>98.02799999999999</v>
       </c>
       <c r="T2">
-        <v>0.002876260620502082</v>
+        <v>0.1228684650140481</v>
       </c>
       <c r="U2">
-        <v>1526.836</v>
+        <v>641.337</v>
       </c>
       <c r="V2">
-        <v>0.06251606061474588</v>
+        <v>0.03555694160304709</v>
       </c>
       <c r="W2">
-        <v>0.381884945891809</v>
+        <v>0.2876064333017975</v>
       </c>
       <c r="X2">
-        <v>0.06301566854024701</v>
+        <v>0.05997947110027935</v>
       </c>
       <c r="Y2">
-        <v>0.318869277351562</v>
+        <v>0.2276269622015182</v>
       </c>
       <c r="Z2">
-        <v>1.736075958551321</v>
+        <v>1.924137069504708</v>
       </c>
       <c r="AA2">
-        <v>0.1970615928548153</v>
+        <v>0.2454347283306264</v>
       </c>
       <c r="AB2">
-        <v>0.06291751610789602</v>
+        <v>0.05978493928437828</v>
       </c>
       <c r="AC2">
-        <v>0.1339945728618321</v>
+        <v>0.1847925174975664</v>
       </c>
       <c r="AD2">
-        <v>36.87</v>
+        <v>444.652</v>
       </c>
       <c r="AE2">
-        <v>3.844596417123262</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>40.71459641712327</v>
+        <v>444.652</v>
       </c>
       <c r="AG2">
-        <v>-1486.121403582877</v>
+        <v>-196.685</v>
       </c>
       <c r="AH2">
-        <v>0.00166427832653237</v>
+        <v>0.02405923485213796</v>
       </c>
       <c r="AI2">
-        <v>0.008865811686526958</v>
+        <v>0.09286893435857335</v>
       </c>
       <c r="AJ2">
-        <v>-0.06479150675124302</v>
+        <v>-0.01102481107991131</v>
       </c>
       <c r="AK2">
-        <v>-0.4847926210673364</v>
+        <v>-0.04743266495683829</v>
       </c>
       <c r="AL2">
-        <v>23.012</v>
+        <v>32.919</v>
       </c>
       <c r="AM2">
-        <v>21.411</v>
+        <v>32.064</v>
       </c>
       <c r="AN2">
-        <v>0.04784142649716935</v>
+        <v>0.200467070619635</v>
       </c>
       <c r="AO2">
-        <v>81.90639666261082</v>
+        <v>67.56493210607856</v>
       </c>
       <c r="AP2">
-        <v>-1.928347379858431</v>
+        <v>-0.08867353747385126</v>
       </c>
       <c r="AQ2">
-        <v>88.03091868665639</v>
+        <v>69.36657934131736</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BB Seguridade Participações S.A. (BOVESPA:BBSE3)</t>
+          <t>Wiz Soluções e Corretagem de Seguros S.A. (BOVESPA:WIZS3)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,49 +728,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.04769999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="E3">
-        <v>0.14</v>
-      </c>
-      <c r="F3">
-        <v>0.115</v>
+        <v>0.19</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.7400749063670412</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7400749063670412</v>
       </c>
       <c r="I3">
-        <v>0.8812161206693377</v>
+        <v>0.501123595505618</v>
       </c>
       <c r="J3">
-        <v>0.6301346324398618</v>
+        <v>0.3072174908752594</v>
       </c>
       <c r="K3">
-        <v>1490.6</v>
+        <v>38</v>
       </c>
       <c r="L3">
-        <v>1.171026789221463</v>
+        <v>0.2846441947565543</v>
       </c>
       <c r="M3">
-        <v>1406.4</v>
+        <v>26.5</v>
       </c>
       <c r="N3">
-        <v>0.07505843927119024</v>
+        <v>0.1070274636510501</v>
       </c>
       <c r="O3">
-        <v>0.9435126794579365</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="P3">
-        <v>1406.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q3">
-        <v>0.07505843927119024</v>
+        <v>0.1070274636510501</v>
       </c>
       <c r="R3">
-        <v>0.9435126794579365</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,67 +776,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1467.8</v>
+        <v>31.4</v>
       </c>
       <c r="V3">
-        <v>0.07833530799363839</v>
+        <v>0.1268174474959612</v>
       </c>
       <c r="W3">
-        <v>0.588518635502211</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="X3">
-        <v>0.06291355496559357</v>
+        <v>0.0599683918499534</v>
       </c>
       <c r="Y3">
-        <v>0.5256050805366174</v>
+        <v>0.584099404760216</v>
       </c>
       <c r="Z3">
-        <v>0.6916807042330054</v>
+        <v>40.45454545454549</v>
       </c>
       <c r="AA3">
-        <v>0.4358519663276096</v>
+        <v>12.4283439490446</v>
       </c>
       <c r="AB3">
-        <v>0.06291355496559357</v>
+        <v>0.05978493928437828</v>
       </c>
       <c r="AC3">
-        <v>0.3729384113620161</v>
+        <v>12.36855900976022</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG3">
-        <v>-1467.8</v>
+        <v>-29.6</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.007217321571772253</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02706766917293233</v>
       </c>
       <c r="AJ3">
-        <v>-0.08499328299439476</v>
+        <v>-0.1357798165137614</v>
       </c>
       <c r="AK3">
-        <v>-1.373058933582787</v>
+        <v>-0.843304843304843</v>
       </c>
       <c r="AL3">
-        <v>0.192</v>
+        <v>0.201</v>
       </c>
       <c r="AM3">
-        <v>0.192</v>
+        <v>-0.349</v>
+      </c>
+      <c r="AN3">
+        <v>0.0237467018469657</v>
       </c>
       <c r="AO3">
-        <v>5842.1875</v>
+        <v>332.8358208955224</v>
+      </c>
+      <c r="AP3">
+        <v>-0.3905013192612137</v>
       </c>
       <c r="AQ3">
-        <v>5842.1875</v>
+        <v>-191.6905444126074</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Porto Seguro S.A. (BOVESPA:PSSA3)</t>
+          <t>BB Seguridade Participações S.A. (BOVESPA:BBSE3)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,124 +862,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.05690000000000001</v>
+        <v>-0.00442</v>
       </c>
       <c r="E4">
-        <v>-0.0187</v>
+        <v>-0.0111</v>
       </c>
       <c r="F4">
-        <v>0.07490000000000001</v>
+        <v>-0.101</v>
       </c>
       <c r="G4">
-        <v>0.1544504262940696</v>
+        <v>1.335056440552801</v>
       </c>
       <c r="H4">
-        <v>0.1544504262940696</v>
+        <v>1.335056440552801</v>
       </c>
       <c r="I4">
-        <v>0.1421538848272828</v>
+        <v>0.9368076801350353</v>
       </c>
       <c r="J4">
-        <v>0.09414948138976996</v>
+        <v>0.7438185694052909</v>
       </c>
       <c r="K4">
-        <v>334.8</v>
+        <v>729.6</v>
       </c>
       <c r="L4">
-        <v>0.07013427739489285</v>
+        <v>0.7697014453001372</v>
       </c>
       <c r="M4">
-        <v>234.08</v>
+        <v>509.5</v>
       </c>
       <c r="N4">
-        <v>0.0464140542898499</v>
+        <v>0.04472476057549662</v>
       </c>
       <c r="O4">
-        <v>0.6991636798088411</v>
+        <v>0.698327850877193</v>
       </c>
       <c r="P4">
-        <v>229.3</v>
+        <v>509.5</v>
       </c>
       <c r="Q4">
-        <v>0.04546626216961117</v>
+        <v>0.04472476057549662</v>
       </c>
       <c r="R4">
-        <v>0.6848864994026285</v>
+        <v>0.698327850877193</v>
       </c>
       <c r="S4">
-        <v>4.780000000000001</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02042036910457963</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>45.8</v>
+        <v>325.3</v>
       </c>
       <c r="V4">
-        <v>0.009081355461701662</v>
+        <v>0.02855537706616105</v>
       </c>
       <c r="W4">
-        <v>0.175251256281407</v>
+        <v>0.2876064333017975</v>
       </c>
       <c r="X4">
-        <v>0.06311778211490043</v>
+        <v>0.05972644268231771</v>
       </c>
       <c r="Y4">
-        <v>0.1121334741665066</v>
+        <v>0.2278799906194798</v>
       </c>
       <c r="Z4">
-        <v>2.696091720320795</v>
+        <v>0.886716557530402</v>
       </c>
       <c r="AA4">
-        <v>0.2538356372474556</v>
+        <v>0.659556241290248</v>
       </c>
       <c r="AB4">
-        <v>0.06292147725019846</v>
+        <v>0.05972644268231771</v>
       </c>
       <c r="AC4">
-        <v>0.1909141599972571</v>
+        <v>0.5998297986079303</v>
       </c>
       <c r="AD4">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-10.09999999999999</v>
+        <v>-325.3</v>
       </c>
       <c r="AH4">
-        <v>0.007028942705256941</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0181633172220809</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.002006675673527775</v>
+        <v>-0.02939475539009271</v>
       </c>
       <c r="AK4">
-        <v>-0.005261238735219042</v>
+        <v>-0.4034478481954608</v>
       </c>
       <c r="AL4">
-        <v>22.6</v>
+        <v>0.147</v>
       </c>
       <c r="AM4">
-        <v>22.6</v>
+        <v>0.147</v>
       </c>
       <c r="AN4">
-        <v>0.05268595041322315</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>30.02654867256637</v>
+        <v>6040.816326530613</v>
       </c>
       <c r="AP4">
-        <v>-0.01490554899645808</v>
+        <v>-0.3663288288288288</v>
       </c>
       <c r="AQ4">
-        <v>30.02654867256637</v>
+        <v>6040.816326530613</v>
       </c>
     </row>
     <row r="5">
@@ -987,7 +990,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alper Consultoria e Corretora de Seguros S.A. (BOVESPA:APER3)</t>
+          <t>Sul América S.A. (BOVESPA:SULA11)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,115 +999,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.177</v>
+        <v>0.07780000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.302</v>
+      </c>
+      <c r="F5">
+        <v>0.00226</v>
       </c>
       <c r="G5">
-        <v>0.07405660377358492</v>
+        <v>0.1959499702203693</v>
       </c>
       <c r="H5">
-        <v>0.07405660377358492</v>
+        <v>0.1959499702203693</v>
       </c>
       <c r="I5">
-        <v>0.08830569417808243</v>
+        <v>0.153685801988363</v>
       </c>
       <c r="J5">
-        <v>0.08830569417808243</v>
+        <v>0.1106238538194302</v>
       </c>
       <c r="K5">
-        <v>-33.1</v>
+        <v>490.9</v>
       </c>
       <c r="L5">
-        <v>-1.561320754716981</v>
+        <v>0.1124524671278692</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>131.9</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.04011801204452826</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.2686901609289061</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>41</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.01247034491149097</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.08352006518639235</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>90.90000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.689158453373768</v>
       </c>
       <c r="U5">
-        <v>0.536</v>
+        <v>242.5</v>
       </c>
       <c r="V5">
-        <v>0.006674968866749689</v>
+        <v>0.07375752783015999</v>
       </c>
       <c r="W5">
-        <v>-0.5658119658119658</v>
+        <v>0.2939168961800982</v>
       </c>
       <c r="X5">
-        <v>0.06471524676923893</v>
+        <v>0.06396583442419193</v>
       </c>
       <c r="Y5">
-        <v>-0.6305272125812047</v>
+        <v>0.2299510617559063</v>
       </c>
       <c r="Z5">
-        <v>1.588658010878245</v>
+        <v>2.218642000406587</v>
       </c>
       <c r="AA5">
-        <v>0.1402875484621751</v>
+        <v>0.2454347283306264</v>
       </c>
       <c r="AB5">
-        <v>0.06321256273576788</v>
+        <v>0.06064221083306002</v>
       </c>
       <c r="AC5">
-        <v>0.07707498572640718</v>
+        <v>0.1847925174975664</v>
       </c>
       <c r="AD5">
-        <v>1.17</v>
+        <v>418.8</v>
       </c>
       <c r="AE5">
-        <v>3.844596417123262</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.014596417123262</v>
+        <v>418.8</v>
       </c>
       <c r="AG5">
-        <v>4.478596417123262</v>
+        <v>176.3</v>
       </c>
       <c r="AH5">
-        <v>0.05877770777471317</v>
+        <v>0.1129876436626558</v>
       </c>
       <c r="AI5">
-        <v>0.1771028745474431</v>
+        <v>0.2142966791178427</v>
       </c>
       <c r="AJ5">
-        <v>0.05282697056091733</v>
+        <v>0.05089344995814209</v>
       </c>
       <c r="AK5">
-        <v>0.1612247195600772</v>
+        <v>0.1029910036219185</v>
       </c>
       <c r="AL5">
-        <v>0.1</v>
+        <v>17.4</v>
       </c>
       <c r="AM5">
-        <v>-0.341</v>
+        <v>17.4</v>
       </c>
       <c r="AN5">
-        <v>0.2873986735445836</v>
+        <v>0.6332022981554279</v>
       </c>
       <c r="AO5">
-        <v>17.3</v>
+        <v>38.55747126436782</v>
       </c>
       <c r="AP5">
-        <v>1.100121939848504</v>
+        <v>0.2665557907469006</v>
       </c>
       <c r="AQ5">
-        <v>-5.073313782991203</v>
+        <v>38.55747126436782</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1127,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wiz Soluções e Corretagem de Seguros S.A. (BOVESPA:WIZS3)</t>
+          <t>Porto Seguro S.A. (BOVESPA:PSSA3)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1123,116 +1135,256 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.0354</v>
+      </c>
+      <c r="E6">
+        <v>0.109</v>
+      </c>
+      <c r="F6">
+        <v>-0.0207</v>
+      </c>
       <c r="G6">
-        <v>0.5181876196553925</v>
+        <v>0.1928790048577766</v>
       </c>
       <c r="H6">
-        <v>0.5181876196553925</v>
+        <v>0.1928790048577766</v>
       </c>
       <c r="I6">
-        <v>0.5283982131461391</v>
+        <v>0.1672984584281021</v>
       </c>
       <c r="J6">
-        <v>0.349646401263988</v>
+        <v>0.1080186094922169</v>
       </c>
       <c r="K6">
-        <v>51.4</v>
+        <v>293.7</v>
       </c>
       <c r="L6">
-        <v>0.3280153158902361</v>
+        <v>0.08246988459270491</v>
       </c>
       <c r="M6">
-        <v>21.4</v>
+        <v>129.82</v>
       </c>
       <c r="N6">
-        <v>0.03807151752357232</v>
+        <v>0.04272643496577146</v>
       </c>
       <c r="O6">
-        <v>0.4163424124513618</v>
+        <v>0.4420156622403814</v>
       </c>
       <c r="P6">
-        <v>21.4</v>
+        <v>122.7</v>
       </c>
       <c r="Q6">
-        <v>0.03807151752357232</v>
+        <v>0.04038309636650869</v>
       </c>
       <c r="R6">
-        <v>0.4163424124513618</v>
+        <v>0.4177732379979571</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>7.11999999999999</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.05484517023571091</v>
       </c>
       <c r="U6">
-        <v>12.7</v>
+        <v>41.5</v>
       </c>
       <c r="V6">
-        <v>0.02259384451165273</v>
+        <v>0.01365850447604002</v>
       </c>
       <c r="W6">
-        <v>0.982791586998088</v>
+        <v>0.152191936988289</v>
       </c>
       <c r="X6">
-        <v>0.06291355496559357</v>
+        <v>0.05997947110027935</v>
       </c>
       <c r="Y6">
-        <v>0.9198780320324944</v>
+        <v>0.0922124658880096</v>
       </c>
       <c r="Z6">
-        <v>-4.032424086464229</v>
+        <v>2.155098335854766</v>
       </c>
       <c r="AA6">
-        <v>-1.409922570202442</v>
+        <v>0.2327907255580225</v>
       </c>
       <c r="AB6">
-        <v>0.06291355496559357</v>
+        <v>0.05975473031074879</v>
       </c>
       <c r="AC6">
-        <v>-1.472836125168036</v>
+        <v>0.1730359952472737</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="AG6">
-        <v>-12.7</v>
+        <v>-18.4</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.0075453209211171</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01441317776252574</v>
       </c>
       <c r="AJ6">
-        <v>-0.0231161266836549</v>
+        <v>-0.006092715231788079</v>
       </c>
       <c r="AK6">
-        <v>-0.2591836734693878</v>
+        <v>-0.01178580579041763</v>
       </c>
       <c r="AL6">
-        <v>0.12</v>
+        <v>15.1</v>
       </c>
       <c r="AM6">
-        <v>-1.04</v>
+        <v>15.1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.03919904972000679</v>
       </c>
       <c r="AO6">
-        <v>690</v>
+        <v>39.45695364238411</v>
       </c>
       <c r="AP6">
-        <v>-0.1426966292134831</v>
+        <v>-0.03122348549126082</v>
       </c>
       <c r="AQ6">
-        <v>-79.61538461538461</v>
+        <v>39.45695364238411</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alper Consultoria e Corretora de Seguros S.A. (BOVESPA:APER3)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>-0.131</v>
+      </c>
+      <c r="G7">
+        <v>0.2106145251396648</v>
+      </c>
+      <c r="H7">
+        <v>0.2106145251396648</v>
+      </c>
+      <c r="I7">
+        <v>0.1435754189944134</v>
+      </c>
+      <c r="J7">
+        <v>0.1435754189944134</v>
+      </c>
+      <c r="K7">
+        <v>0.018</v>
+      </c>
+      <c r="L7">
+        <v>0.001005586592178771</v>
+      </c>
+      <c r="M7">
+        <v>0.1088</v>
+      </c>
+      <c r="N7">
+        <v>0.001528089887640449</v>
+      </c>
+      <c r="O7">
+        <v>6.044444444444443</v>
+      </c>
+      <c r="P7">
+        <v>0.1008</v>
+      </c>
+      <c r="Q7">
+        <v>0.001415730337078651</v>
+      </c>
+      <c r="R7">
+        <v>5.6</v>
+      </c>
+      <c r="S7">
+        <v>0.007999999999999993</v>
+      </c>
+      <c r="T7">
+        <v>0.07352941176470583</v>
+      </c>
+      <c r="U7">
+        <v>0.637</v>
+      </c>
+      <c r="V7">
+        <v>0.008946629213483145</v>
+      </c>
+      <c r="W7">
+        <v>0.0007725321888412016</v>
+      </c>
+      <c r="X7">
+        <v>0.06017144187425807</v>
+      </c>
+      <c r="Y7">
+        <v>-0.05939890968541688</v>
+      </c>
+      <c r="Z7">
+        <v>-12.2100954979536</v>
+      </c>
+      <c r="AA7">
+        <v>-1.75306957708049</v>
+      </c>
+      <c r="AB7">
+        <v>0.05983338341570245</v>
+      </c>
+      <c r="AC7">
+        <v>-1.812902960496192</v>
+      </c>
+      <c r="AD7">
+        <v>0.952</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.952</v>
+      </c>
+      <c r="AG7">
+        <v>0.3149999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>0.01319436744650183</v>
+      </c>
+      <c r="AI7">
+        <v>0.02897844880068185</v>
+      </c>
+      <c r="AJ7">
+        <v>0.004404670348877857</v>
+      </c>
+      <c r="AK7">
+        <v>0.009778053701691759</v>
+      </c>
+      <c r="AL7">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>-0.234</v>
+      </c>
+      <c r="AN7">
+        <v>0.2659217877094972</v>
+      </c>
+      <c r="AO7">
+        <v>36.19718309859155</v>
+      </c>
+      <c r="AP7">
+        <v>0.08798882681564243</v>
+      </c>
+      <c r="AQ7">
+        <v>-10.98290598290598</v>
       </c>
     </row>
   </sheetData>
